--- a/Emery_Reed_460.xlsx
+++ b/Emery_Reed_460.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eve2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lavin/frank-gothic-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="8960" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="7940" yWindow="3920" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Montrose : Or, The Gothic Ruin</t>
   </si>
@@ -422,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,13 +428,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1">
+        <v>1799</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1799</v>
@@ -448,7 +442,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1799</v>
@@ -456,7 +450,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1799</v>
@@ -464,7 +458,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1799</v>
@@ -472,7 +466,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1799</v>
@@ -480,7 +474,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1799</v>
@@ -488,15 +482,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1800</v>
@@ -504,7 +498,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1800</v>
@@ -520,7 +514,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1800</v>
@@ -536,7 +530,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1800</v>
@@ -544,7 +538,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1800</v>
@@ -552,7 +546,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1800</v>
@@ -560,7 +554,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1800</v>
@@ -568,7 +562,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1800</v>
@@ -576,7 +570,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1800</v>
@@ -584,7 +578,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1800</v>
@@ -592,7 +586,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1800</v>
@@ -600,7 +594,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1800</v>
@@ -608,7 +602,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1800</v>
@@ -616,7 +610,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1800</v>
@@ -624,17 +618,9 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
         <v>1800</v>
       </c>
     </row>
